--- a/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,127 +452,127 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>540</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45502</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45523</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45530</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45558</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45586</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45593</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,15 +580,15 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45607</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45614</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>20</v>
@@ -596,17 +596,201 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45621</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45635</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>60</v>
       </c>
     </row>
@@ -621,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,81 +827,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>540</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,239 +460,239 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>20</v>
@@ -700,15 +700,15 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>40</v>
@@ -716,15 +716,15 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>20</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>20</v>
@@ -740,57 +740,9 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B39" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B42" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B43" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B44" t="n">
         <v>60</v>
       </c>
     </row>
@@ -805,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +790,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +798,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>390</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -899,73 +851,65 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45626.99999999999</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45657.99999999999</v>
-      </c>
-      <c r="B19" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -911,6 +912,677 @@
       </c>
       <c r="B18" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-52.1469913282838</v>
+      </c>
+      <c r="D2" t="n">
+        <v>199.3218361780529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-61.37489699582044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>201.173608202817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-47.53876503461261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>201.819355600353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-52.69700016248021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>194.0677200787829</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-52.47642415048195</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200.5715861864387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-61.59947894748497</v>
+      </c>
+      <c r="D7" t="n">
+        <v>199.7976701564387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-49.41135927828356</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.7007438686732</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>71</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-51.32046383689503</v>
+      </c>
+      <c r="D9" t="n">
+        <v>195.4761143823089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-52.48384143295105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200.8193742532641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-66.75484868083269</v>
+      </c>
+      <c r="D11" t="n">
+        <v>193.2275804401924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-53.04113966103117</v>
+      </c>
+      <c r="D12" t="n">
+        <v>198.3829682791275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>71</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51.85916455991468</v>
+      </c>
+      <c r="D13" t="n">
+        <v>191.934194319674</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>71</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-55.13729965066985</v>
+      </c>
+      <c r="D14" t="n">
+        <v>204.7210959289454</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-49.35244410790973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>193.4545569577919</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>71</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-50.63447311151499</v>
+      </c>
+      <c r="D16" t="n">
+        <v>194.540484585443</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>71</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-57.4264124814884</v>
+      </c>
+      <c r="D17" t="n">
+        <v>197.8516071278385</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-54.26366716344275</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196.650222542691</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-56.12662845267637</v>
+      </c>
+      <c r="D19" t="n">
+        <v>194.1211452046792</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-55.61643059134654</v>
+      </c>
+      <c r="D20" t="n">
+        <v>199.3411224029486</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>71</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-46.92231587706723</v>
+      </c>
+      <c r="D21" t="n">
+        <v>195.1017834775699</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>72</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-56.74353398837473</v>
+      </c>
+      <c r="D22" t="n">
+        <v>206.948240800566</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>72</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-53.28253787831981</v>
+      </c>
+      <c r="D23" t="n">
+        <v>186.5219320881281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>72</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-52.50963880578345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>190.1923678325104</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>72</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-54.77817100362211</v>
+      </c>
+      <c r="D25" t="n">
+        <v>195.2889184750318</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>72</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-55.24039483245295</v>
+      </c>
+      <c r="D26" t="n">
+        <v>192.2188152633357</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-53.15749846783901</v>
+      </c>
+      <c r="D27" t="n">
+        <v>199.3711050094181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>72</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-52.07314232595023</v>
+      </c>
+      <c r="D28" t="n">
+        <v>201.8085975321499</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-43.61861453051986</v>
+      </c>
+      <c r="D29" t="n">
+        <v>200.8582484940482</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>72</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-52.30537393987356</v>
+      </c>
+      <c r="D30" t="n">
+        <v>208.7379845346554</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-51.99541558984632</v>
+      </c>
+      <c r="D31" t="n">
+        <v>195.8886250103356</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-62.69073908282876</v>
+      </c>
+      <c r="D32" t="n">
+        <v>197.2212938438475</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-58.85952243824094</v>
+      </c>
+      <c r="D33" t="n">
+        <v>193.9033356410292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>72</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-60.29802452818003</v>
+      </c>
+      <c r="D34" t="n">
+        <v>196.2373804921115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-52.60712939346978</v>
+      </c>
+      <c r="D35" t="n">
+        <v>200.1875017463815</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>72</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-44.04400814060485</v>
+      </c>
+      <c r="D36" t="n">
+        <v>201.8753514337319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>72</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-57.45951644006173</v>
+      </c>
+      <c r="D37" t="n">
+        <v>197.8488234274854</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>72</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-52.13826438032333</v>
+      </c>
+      <c r="D38" t="n">
+        <v>196.5263487423765</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>72</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-60.28311188353717</v>
+      </c>
+      <c r="D39" t="n">
+        <v>194.1086348966857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>72</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-59.29776019589153</v>
+      </c>
+      <c r="D40" t="n">
+        <v>199.6579538107232</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>72</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-56.59558764551767</v>
+      </c>
+      <c r="D41" t="n">
+        <v>208.644250157083</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-50.87790940057959</v>
+      </c>
+      <c r="D42" t="n">
+        <v>204.2945047443312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>72</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-55.78225440617986</v>
+      </c>
+      <c r="D43" t="n">
+        <v>193.7637317640966</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>72</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-59.58616225391219</v>
+      </c>
+      <c r="D44" t="n">
+        <v>191.1789776097858</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>72</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-50.55083420477186</v>
+      </c>
+      <c r="D45" t="n">
+        <v>194.1026264207607</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>72</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-51.01010537953076</v>
+      </c>
+      <c r="D46" t="n">
+        <v>194.7462181324152</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,16 +944,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -962,12 +952,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>-52.1469913282838</v>
-      </c>
-      <c r="D2" t="n">
-        <v>199.3218361780529</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -976,12 +960,6 @@
       <c r="B3" t="n">
         <v>71</v>
       </c>
-      <c r="C3" t="n">
-        <v>-61.37489699582044</v>
-      </c>
-      <c r="D3" t="n">
-        <v>201.173608202817</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -990,12 +968,6 @@
       <c r="B4" t="n">
         <v>71</v>
       </c>
-      <c r="C4" t="n">
-        <v>-47.53876503461261</v>
-      </c>
-      <c r="D4" t="n">
-        <v>201.819355600353</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1004,12 +976,6 @@
       <c r="B5" t="n">
         <v>71</v>
       </c>
-      <c r="C5" t="n">
-        <v>-52.69700016248021</v>
-      </c>
-      <c r="D5" t="n">
-        <v>194.0677200787829</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1018,12 +984,6 @@
       <c r="B6" t="n">
         <v>71</v>
       </c>
-      <c r="C6" t="n">
-        <v>-52.47642415048195</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200.5715861864387</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1032,12 +992,6 @@
       <c r="B7" t="n">
         <v>71</v>
       </c>
-      <c r="C7" t="n">
-        <v>-61.59947894748497</v>
-      </c>
-      <c r="D7" t="n">
-        <v>199.7976701564387</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1046,12 +1000,6 @@
       <c r="B8" t="n">
         <v>71</v>
       </c>
-      <c r="C8" t="n">
-        <v>-49.41135927828356</v>
-      </c>
-      <c r="D8" t="n">
-        <v>187.7007438686732</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1060,12 +1008,6 @@
       <c r="B9" t="n">
         <v>71</v>
       </c>
-      <c r="C9" t="n">
-        <v>-51.32046383689503</v>
-      </c>
-      <c r="D9" t="n">
-        <v>195.4761143823089</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1074,12 +1016,6 @@
       <c r="B10" t="n">
         <v>71</v>
       </c>
-      <c r="C10" t="n">
-        <v>-52.48384143295105</v>
-      </c>
-      <c r="D10" t="n">
-        <v>200.8193742532641</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1088,12 +1024,6 @@
       <c r="B11" t="n">
         <v>71</v>
       </c>
-      <c r="C11" t="n">
-        <v>-66.75484868083269</v>
-      </c>
-      <c r="D11" t="n">
-        <v>193.2275804401924</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1102,12 +1032,6 @@
       <c r="B12" t="n">
         <v>71</v>
       </c>
-      <c r="C12" t="n">
-        <v>-53.04113966103117</v>
-      </c>
-      <c r="D12" t="n">
-        <v>198.3829682791275</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1116,12 +1040,6 @@
       <c r="B13" t="n">
         <v>71</v>
       </c>
-      <c r="C13" t="n">
-        <v>-51.85916455991468</v>
-      </c>
-      <c r="D13" t="n">
-        <v>191.934194319674</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1130,12 +1048,6 @@
       <c r="B14" t="n">
         <v>71</v>
       </c>
-      <c r="C14" t="n">
-        <v>-55.13729965066985</v>
-      </c>
-      <c r="D14" t="n">
-        <v>204.7210959289454</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1144,12 +1056,6 @@
       <c r="B15" t="n">
         <v>71</v>
       </c>
-      <c r="C15" t="n">
-        <v>-49.35244410790973</v>
-      </c>
-      <c r="D15" t="n">
-        <v>193.4545569577919</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1158,12 +1064,6 @@
       <c r="B16" t="n">
         <v>71</v>
       </c>
-      <c r="C16" t="n">
-        <v>-50.63447311151499</v>
-      </c>
-      <c r="D16" t="n">
-        <v>194.540484585443</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1172,12 +1072,6 @@
       <c r="B17" t="n">
         <v>71</v>
       </c>
-      <c r="C17" t="n">
-        <v>-57.4264124814884</v>
-      </c>
-      <c r="D17" t="n">
-        <v>197.8516071278385</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1186,12 +1080,6 @@
       <c r="B18" t="n">
         <v>71</v>
       </c>
-      <c r="C18" t="n">
-        <v>-54.26366716344275</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196.650222542691</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1200,12 +1088,6 @@
       <c r="B19" t="n">
         <v>71</v>
       </c>
-      <c r="C19" t="n">
-        <v>-56.12662845267637</v>
-      </c>
-      <c r="D19" t="n">
-        <v>194.1211452046792</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1214,12 +1096,6 @@
       <c r="B20" t="n">
         <v>71</v>
       </c>
-      <c r="C20" t="n">
-        <v>-55.61643059134654</v>
-      </c>
-      <c r="D20" t="n">
-        <v>199.3411224029486</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1228,12 +1104,6 @@
       <c r="B21" t="n">
         <v>71</v>
       </c>
-      <c r="C21" t="n">
-        <v>-46.92231587706723</v>
-      </c>
-      <c r="D21" t="n">
-        <v>195.1017834775699</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1242,12 +1112,6 @@
       <c r="B22" t="n">
         <v>72</v>
       </c>
-      <c r="C22" t="n">
-        <v>-56.74353398837473</v>
-      </c>
-      <c r="D22" t="n">
-        <v>206.948240800566</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1256,12 +1120,6 @@
       <c r="B23" t="n">
         <v>72</v>
       </c>
-      <c r="C23" t="n">
-        <v>-53.28253787831981</v>
-      </c>
-      <c r="D23" t="n">
-        <v>186.5219320881281</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1270,12 +1128,6 @@
       <c r="B24" t="n">
         <v>72</v>
       </c>
-      <c r="C24" t="n">
-        <v>-52.50963880578345</v>
-      </c>
-      <c r="D24" t="n">
-        <v>190.1923678325104</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1284,12 +1136,6 @@
       <c r="B25" t="n">
         <v>72</v>
       </c>
-      <c r="C25" t="n">
-        <v>-54.77817100362211</v>
-      </c>
-      <c r="D25" t="n">
-        <v>195.2889184750318</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1298,12 +1144,6 @@
       <c r="B26" t="n">
         <v>72</v>
       </c>
-      <c r="C26" t="n">
-        <v>-55.24039483245295</v>
-      </c>
-      <c r="D26" t="n">
-        <v>192.2188152633357</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1312,12 +1152,6 @@
       <c r="B27" t="n">
         <v>72</v>
       </c>
-      <c r="C27" t="n">
-        <v>-53.15749846783901</v>
-      </c>
-      <c r="D27" t="n">
-        <v>199.3711050094181</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1326,12 +1160,6 @@
       <c r="B28" t="n">
         <v>72</v>
       </c>
-      <c r="C28" t="n">
-        <v>-52.07314232595023</v>
-      </c>
-      <c r="D28" t="n">
-        <v>201.8085975321499</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1340,12 +1168,6 @@
       <c r="B29" t="n">
         <v>72</v>
       </c>
-      <c r="C29" t="n">
-        <v>-43.61861453051986</v>
-      </c>
-      <c r="D29" t="n">
-        <v>200.8582484940482</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1354,12 +1176,6 @@
       <c r="B30" t="n">
         <v>72</v>
       </c>
-      <c r="C30" t="n">
-        <v>-52.30537393987356</v>
-      </c>
-      <c r="D30" t="n">
-        <v>208.7379845346554</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1368,12 +1184,6 @@
       <c r="B31" t="n">
         <v>72</v>
       </c>
-      <c r="C31" t="n">
-        <v>-51.99541558984632</v>
-      </c>
-      <c r="D31" t="n">
-        <v>195.8886250103356</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1382,12 +1192,6 @@
       <c r="B32" t="n">
         <v>72</v>
       </c>
-      <c r="C32" t="n">
-        <v>-62.69073908282876</v>
-      </c>
-      <c r="D32" t="n">
-        <v>197.2212938438475</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1396,12 +1200,6 @@
       <c r="B33" t="n">
         <v>72</v>
       </c>
-      <c r="C33" t="n">
-        <v>-58.85952243824094</v>
-      </c>
-      <c r="D33" t="n">
-        <v>193.9033356410292</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1410,12 +1208,6 @@
       <c r="B34" t="n">
         <v>72</v>
       </c>
-      <c r="C34" t="n">
-        <v>-60.29802452818003</v>
-      </c>
-      <c r="D34" t="n">
-        <v>196.2373804921115</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1424,12 +1216,6 @@
       <c r="B35" t="n">
         <v>72</v>
       </c>
-      <c r="C35" t="n">
-        <v>-52.60712939346978</v>
-      </c>
-      <c r="D35" t="n">
-        <v>200.1875017463815</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1438,12 +1224,6 @@
       <c r="B36" t="n">
         <v>72</v>
       </c>
-      <c r="C36" t="n">
-        <v>-44.04400814060485</v>
-      </c>
-      <c r="D36" t="n">
-        <v>201.8753514337319</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1452,12 +1232,6 @@
       <c r="B37" t="n">
         <v>72</v>
       </c>
-      <c r="C37" t="n">
-        <v>-57.45951644006173</v>
-      </c>
-      <c r="D37" t="n">
-        <v>197.8488234274854</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1466,12 +1240,6 @@
       <c r="B38" t="n">
         <v>72</v>
       </c>
-      <c r="C38" t="n">
-        <v>-52.13826438032333</v>
-      </c>
-      <c r="D38" t="n">
-        <v>196.5263487423765</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1480,12 +1248,6 @@
       <c r="B39" t="n">
         <v>72</v>
       </c>
-      <c r="C39" t="n">
-        <v>-60.28311188353717</v>
-      </c>
-      <c r="D39" t="n">
-        <v>194.1086348966857</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1494,12 +1256,6 @@
       <c r="B40" t="n">
         <v>72</v>
       </c>
-      <c r="C40" t="n">
-        <v>-59.29776019589153</v>
-      </c>
-      <c r="D40" t="n">
-        <v>199.6579538107232</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1508,12 +1264,6 @@
       <c r="B41" t="n">
         <v>72</v>
       </c>
-      <c r="C41" t="n">
-        <v>-56.59558764551767</v>
-      </c>
-      <c r="D41" t="n">
-        <v>208.644250157083</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1522,12 +1272,6 @@
       <c r="B42" t="n">
         <v>72</v>
       </c>
-      <c r="C42" t="n">
-        <v>-50.87790940057959</v>
-      </c>
-      <c r="D42" t="n">
-        <v>204.2945047443312</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1536,12 +1280,6 @@
       <c r="B43" t="n">
         <v>72</v>
       </c>
-      <c r="C43" t="n">
-        <v>-55.78225440617986</v>
-      </c>
-      <c r="D43" t="n">
-        <v>193.7637317640966</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1550,12 +1288,6 @@
       <c r="B44" t="n">
         <v>72</v>
       </c>
-      <c r="C44" t="n">
-        <v>-59.58616225391219</v>
-      </c>
-      <c r="D44" t="n">
-        <v>191.1789776097858</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1564,12 +1296,6 @@
       <c r="B45" t="n">
         <v>72</v>
       </c>
-      <c r="C45" t="n">
-        <v>-50.55083420477186</v>
-      </c>
-      <c r="D45" t="n">
-        <v>194.1026264207607</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1577,12 +1303,6 @@
       </c>
       <c r="B46" t="n">
         <v>72</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-51.01010537953076</v>
-      </c>
-      <c r="D46" t="n">
-        <v>194.7462181324152</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BKJCWV_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,22 @@
         <v>60</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -758,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,6 +930,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -925,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +974,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +982,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -966,7 +990,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -974,7 +998,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -982,7 +1006,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -990,7 +1014,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -998,7 +1022,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -1006,7 +1030,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1014,7 +1038,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1022,7 +1046,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1030,7 +1054,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1038,7 +1062,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1046,7 +1070,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1094,7 +1118,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1102,7 +1126,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1134,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -1118,7 +1142,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1150,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1158,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1142,7 +1166,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1150,7 +1174,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -1158,7 +1182,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1166,7 +1190,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -1174,7 +1198,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -1182,7 +1206,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -1190,7 +1214,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -1198,7 +1222,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -1206,7 +1230,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -1214,7 +1238,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
@@ -1222,7 +1246,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -1230,7 +1254,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
@@ -1238,71 +1262,87 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
